--- a/biology/Botanique/Quercus_douglasii/Quercus_douglasii.xlsx
+++ b/biology/Botanique/Quercus_douglasii/Quercus_douglasii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne bleu ou chêne de Douglas (Quercus douglasii) appartient à la section du chêne blanc.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne bleu est un arbre de taille moyenne atteignant 15 à 25 m en hauteur, généralement une silhouette de forme irrégulière, et un tronc de 0,5 à 1 m de diamètre. L'écorce est gris clair avec de nombreuses fissures moyennes; de loin, elle peut apparaître presque blanche. Son nom de chêne bleu provient de la teinte bleu-vert de ses feuilles, qui sont décidues, 4 à 5 cm de long, et entières ou très superficiellement lobées.
 </t>
@@ -542,7 +556,9 @@
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse dans les collines de la vallée centrale de Californie, à l'ouest des États-Unis, ainsi que dans le sud du Québec et de l'Ontario. Il est parfois appelé Mountain Oak (chêne de montagne), et occasionnellement Iron Oak (chêne de fer).
 Sur les autres projets Wikimedia :
